--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_0_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_0_sawtooth_0_.xlsx
@@ -599,14 +599,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.14751454784408402, 13.178824898147584]</t>
+          <t>[0.3034143856664677, 13.0229250603252]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04523954168807709</v>
+        <v>0.04043375024012086</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04523954168807709</v>
+        <v>0.04043375024012086</v>
       </c>
       <c r="P2" t="n">
         <v>-1.572368695490387</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.094805824994218, 12.953224493782976]</t>
+          <t>[5.096759098678909, 12.951271220098285]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.162758853614278e-05</v>
+        <v>3.139085950865095e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.162758853614278e-05</v>
+        <v>3.139085950865095e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.421421421421567</v>
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.5899017337282402, 13.721657159719777]</t>
+          <t>[-0.6935467382578224, 13.82530216424936]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07117119745557421</v>
+        <v>0.07515434006723654</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07117119745557421</v>
+        <v>0.07515434006723654</v>
       </c>
       <c r="P3" t="n">
         <v>-2.012631930227695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.748526970049081, -0.27673689040630833]</t>
+          <t>[-3.798842768304774, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02405209049361745</v>
+        <v>0.02808499684366628</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02405209049361745</v>
+        <v>0.02808499684366628</v>
       </c>
       <c r="T3" t="n">
         <v>8.855087297184646</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[4.9066155725607015, 12.80355902180859]</t>
+          <t>[4.911751158793468, 12.798423435575824]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.505533793208727e-05</v>
+        <v>4.420379044334233e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.505533793208727e-05</v>
+        <v>4.420379044334233e-05</v>
       </c>
       <c r="X3" t="n">
         <v>8.219419419419602</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.130170170170198</v>
+        <v>0.9246846846847045</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.30866866866901</v>
+        <v>15.5141541541545</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.8835703794481038, 14.152304300630657]</t>
+          <t>[-1.118666505145077, 14.38740042632763]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08226309092656514</v>
+        <v>0.09166482752672489</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08226309092656514</v>
+        <v>0.09166482752672489</v>
       </c>
       <c r="P4" t="n">
         <v>-2.415158316273234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.503290434216355, 0.6729738016698867]</t>
+          <t>[-5.5284483333442, 0.6981317007977319]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1222189440058885</v>
+        <v>0.1251866165857611</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1222189440058885</v>
+        <v>0.1251866165857611</v>
       </c>
       <c r="T4" t="n">
         <v>8.73739047504113</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.7817414124363555, 12.693039537645904]</t>
+          <t>[4.786044385430724, 12.688736564651535]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.616589522605686e-05</v>
+        <v>5.529420745431501e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.616589522605686e-05</v>
+        <v>5.529420745431501e-05</v>
       </c>
       <c r="X4" t="n">
         <v>9.863303303303523</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.748368368368434</v>
+        <v>-2.851111111111175</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.47497497497548</v>
+        <v>22.57771771771822</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.7912738231038858, 14.186812509304445]</t>
+          <t>[-0.5553854873758386, 13.950924173576398]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0783587055529551</v>
+        <v>0.06944659593550062</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0783587055529551</v>
+        <v>0.06944659593550062</v>
       </c>
       <c r="P5" t="n">
         <v>-2.80510575275485</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.515842893448391, -1.0943686120613085]</t>
+          <t>[-4.503263943884468, -1.1069475616252316]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001883155472196529</v>
+        <v>0.001755548272379892</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001883155472196529</v>
+        <v>0.001755548272379892</v>
       </c>
       <c r="T5" t="n">
         <v>8.686685813965367</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.726676882943234, 12.6466947449875]</t>
+          <t>[4.731233089334403, 12.642138538596331]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.200790850097171e-05</v>
+        <v>6.099954326321821e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.200790850097171e-05</v>
+        <v>6.099954326321821e-05</v>
       </c>
       <c r="X5" t="n">
         <v>11.45581581581607</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.469309309309407</v>
+        <v>4.520680680680779</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.44232232232273</v>
+        <v>18.39095095095136</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.11742174338695399, 13.450423855763868]</t>
+          <t>[-0.23228056446629886, 13.565282676843212]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05392668738032658</v>
+        <v>0.05788009967911534</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05392668738032658</v>
+        <v>0.05788009967911534</v>
       </c>
       <c r="P6" t="n">
         <v>3.08813211794312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.6918687163476562, 4.484395519538584]</t>
+          <t>[1.6667108172198102, 4.50955341866643]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.512627137194137e-05</v>
+        <v>7.106026963987766e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>5.512627137194137e-05</v>
+        <v>7.106026963987766e-05</v>
       </c>
       <c r="T6" t="n">
         <v>8.709714532851745</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.7501849417386754, 12.669244123964814]</t>
+          <t>[4.751498770355218, 12.667930295348272]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.960801637394653e-05</v>
+        <v>5.93260762913328e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>5.960801637394653e-05</v>
+        <v>5.93260762913328e-05</v>
       </c>
       <c r="X6" t="n">
         <v>13.04832832832862</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.346106106106268</v>
+        <v>7.243363363363525</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.75055055055097</v>
+        <v>18.85329329329371</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.8651065508080595, 14.029567542950586]</t>
+          <t>[-1.1255368527570706, 14.289997844899597]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08180596034641718</v>
+        <v>0.09230543459707641</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08180596034641718</v>
+        <v>0.09230543459707641</v>
       </c>
       <c r="P7" t="n">
         <v>2.698184681461504</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 4.572448166486046]</t>
+          <t>[0.8113422468730409, 4.585027116049968]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.005760599028897584</v>
+        <v>0.006066359121851272</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005760599028897584</v>
+        <v>0.006066359121851272</v>
       </c>
       <c r="T7" t="n">
         <v>8.803387266562808</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.852914533387709, 12.753859999737907]</t>
+          <t>[4.851338659845915, 12.755435873279701]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.943720074623847e-05</v>
+        <v>4.972439798578421e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.943720074623847e-05</v>
+        <v>4.972439798578421e-05</v>
       </c>
       <c r="X7" t="n">
         <v>14.64084084084116</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.986506506506659</v>
+        <v>6.93513513513529</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.29517517517567</v>
+        <v>22.34654654654704</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.856341660830351, 14.807257792154603]</t>
+          <t>[-1.8736003466851034, 14.824516478009356]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1245051610836287</v>
+        <v>0.1252654171045577</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1245051610836287</v>
+        <v>0.1252654171045577</v>
       </c>
       <c r="P8" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, 5.635369404637546]</t>
+          <t>[-0.3522105877898465, 5.497000959434392]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09765345609549891</v>
+        <v>0.08324193924942125</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09765345609549891</v>
+        <v>0.08324193924942125</v>
       </c>
       <c r="T8" t="n">
         <v>9.886329130230516</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.577537679868253, 14.195120580592778]</t>
+          <t>[5.577872325160936, 14.194785935300096]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.208718186620274e-05</v>
+        <v>3.204960463443207e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.208718186620274e-05</v>
+        <v>3.204960463443207e-05</v>
       </c>
       <c r="X8" t="n">
         <v>15.15455455455489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.645625625625685</v>
+        <v>3.210710710710785</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.6634834834841</v>
+        <v>27.098398398399</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.506793810036978, 14.606952596178083]</t>
+          <t>[-0.7254561309139564, 14.825614917055061]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06672651006864538</v>
+        <v>0.07446096488810494</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06672651006864538</v>
+        <v>0.07446096488810494</v>
       </c>
       <c r="P9" t="n">
         <v>1.893131909370426</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.35850006257180844, 3.4277637561690426]</t>
+          <t>[0.42139481039142357, 3.3648690083494275]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01675593552400123</v>
+        <v>0.01286133364548681</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01675593552400123</v>
+        <v>0.01286133364548681</v>
       </c>
       <c r="T9" t="n">
         <v>9.322062250303789</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.231385337067369, 13.41273916354021]</t>
+          <t>[5.225554094695859, 13.41857040591172]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.554949795536722e-05</v>
+        <v>3.631420894101289e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.554949795536722e-05</v>
+        <v>3.631420894101289e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.68492492492513</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85237237237251</v>
+        <v>11.09141141141155</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.51747747747775</v>
+        <v>22.27843843843871</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.056103625346113, 14.949443052656656]</t>
+          <t>[-0.5845527772553911, 14.477892204565935]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08723061508095564</v>
+        <v>0.06975142545751667</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08723061508095564</v>
+        <v>0.06975142545751667</v>
       </c>
       <c r="P10" t="n">
         <v>2.182447749340657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 4.270553376951891]</t>
+          <t>[-0.0503157982556921, 4.415211296937006]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0408971891490959</v>
+        <v>0.05516347885100026</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0408971891490959</v>
+        <v>0.05516347885100026</v>
       </c>
       <c r="T10" t="n">
         <v>9.268607879013327</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.192166152237965, 13.34504960578869]</t>
+          <t>[5.194951965594104, 13.34226379243255]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.677228788934173e-05</v>
+        <v>3.639918568931755e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.677228788934173e-05</v>
+        <v>3.639918568931755e-05</v>
       </c>
       <c r="X10" t="n">
         <v>15.58534534534554</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.649249249249343</v>
+        <v>7.099459459459549</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.52144144144173</v>
+        <v>24.07123123123153</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.25825194257331496, 14.11509786591705]</t>
+          <t>[-0.20668122645954767, 14.063527149803283]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05844657667242203</v>
+        <v>0.05671894895990759</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05844657667242203</v>
+        <v>0.05671894895990759</v>
       </c>
       <c r="P11" t="n">
         <v>2.157289850212811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 3.805132243086737]</t>
+          <t>[0.7107106503616549, 3.6038690500639667]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01144698116666176</v>
+        <v>0.004346141510672252</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01144698116666176</v>
+        <v>0.004346141510672252</v>
       </c>
       <c r="T11" t="n">
         <v>8.267696977646011</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.562589511465292, 11.97280444382673]</t>
+          <t>[4.563539513782057, 11.971854441509965]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.84815843229125e-05</v>
+        <v>4.830096132901751e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.84815843229125e-05</v>
+        <v>4.830096132901751e-05</v>
       </c>
       <c r="X11" t="n">
         <v>15.68096096096115</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.418138138138254</v>
+        <v>10.18306306306319</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.94378378378406</v>
+        <v>21.17885885885912</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.6928700496848315, 14.718113542570494]</t>
+          <t>[-0.7640581394774575, 14.78930163236312]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07342358097512536</v>
+        <v>0.07600216917268532</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07342358097512536</v>
+        <v>0.07600216917268532</v>
       </c>
       <c r="P12" t="n">
         <v>2.132131951084965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.10692107129334616, 4.157342830876583]</t>
+          <t>[0.15723686954903826, 4.107027032620891]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.03951512148794722</v>
+        <v>0.03496766915526051</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03951512148794722</v>
+        <v>0.03496766915526051</v>
       </c>
       <c r="T12" t="n">
         <v>9.288137783675339</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.1881149783259115, 13.388160589024766]</t>
+          <t>[5.18856995051746, 13.387705616833218]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.883172510277255e-05</v>
+        <v>3.876781926237527e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.883172510277255e-05</v>
+        <v>3.876781926237527e-05</v>
       </c>
       <c r="X12" t="n">
         <v>15.77657657657677</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.079519519519618</v>
+        <v>8.27075075075085</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.47363363363392</v>
+        <v>23.28240240240269</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.0933513211151444, 15.172723752494015]</t>
+          <t>[-0.8269193619803907, 14.90629179335926]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.08810358893987114</v>
+        <v>0.07818491448695331</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08810358893987114</v>
+        <v>0.07818491448695331</v>
       </c>
       <c r="P13" t="n">
         <v>2.421447791055196</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5346053564667317, 5.377500938577123]</t>
+          <t>[-0.5471843060306547, 5.390079888141046]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1059375662760773</v>
+        <v>0.1073824444003793</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1059375662760773</v>
+        <v>0.1073824444003793</v>
       </c>
       <c r="T13" t="n">
         <v>9.358496888474257</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.267442190880249, 13.449551586068264]</t>
+          <t>[5.26741313272703, 13.449580644221484]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.357669434755906e-05</v>
+        <v>3.358027854183376e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.357669434755906e-05</v>
+        <v>3.358027854183376e-05</v>
       </c>
       <c r="X13" t="n">
         <v>14.67699699699718</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.442162162162205</v>
+        <v>3.394354354354398</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.91183183183215</v>
+        <v>25.95963963963996</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.023195307433391044, 13.848459014711207]</t>
+          <t>[-0.12842727394414233, 14.000081596088739]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04926812231312638</v>
+        <v>0.05413113984826223</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04926812231312638</v>
+        <v>0.05413113984826223</v>
       </c>
       <c r="P14" t="n">
         <v>2.396289891927349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.10692107129334527, 4.685658712561353]</t>
+          <t>[-0.5283158816847697, 5.320895665539468]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.04061748873358328</v>
+        <v>0.1058523572811698</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04061748873358328</v>
+        <v>0.1058523572811698</v>
       </c>
       <c r="T14" t="n">
         <v>8.295025793174457</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.562391933177139, 12.027659653171774]</t>
+          <t>[4.5637243388359625, 12.02632724751295]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.145556654562178e-05</v>
+        <v>5.119026329380993e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.145556654562178e-05</v>
+        <v>5.119026329380993e-05</v>
       </c>
       <c r="X14" t="n">
         <v>14.7726126126128</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.071591591591666</v>
+        <v>3.657297297297347</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.47363363363393</v>
+        <v>25.88792792792825</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_0_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_0_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.3034143856664677, 13.0229250603252]</t>
+          <t>[0.07989974700073788, 13.24643969899093]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04043375024012086</v>
+        <v>0.04739662214074736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04043375024012086</v>
+        <v>0.04739662214074736</v>
       </c>
       <c r="P2" t="n">
         <v>-1.572368695490387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, -0.2515789912784623]</t>
+          <t>[-2.905737349266235, -0.23900004171453926]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0207068772535941</v>
+        <v>0.021864959814617</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0207068772535941</v>
+        <v>0.021864959814617</v>
       </c>
       <c r="T2" t="n">
         <v>9.024015159388597</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.096759098678909, 12.951271220098285]</t>
+          <t>[5.098442523111412, 12.949587795665781]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.139085950865095e-05</v>
+        <v>3.118804391366581e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.139085950865095e-05</v>
+        <v>3.118804391366581e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.421421421421567</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.027427427427453</v>
+        <v>0.9760560560560814</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.81541541541568</v>
+        <v>11.86678678678705</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.6935467382578224, 13.82530216424936]</t>
+          <t>[-0.8903459806186174, 14.022101406610155]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07515434006723654</v>
+        <v>0.08289665067397056</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07515434006723654</v>
+        <v>0.08289665067397056</v>
       </c>
       <c r="P3" t="n">
         <v>-2.012631930227695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.798842768304774, -0.22642109215061534]</t>
+          <t>[-3.761105919613004, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02808499684366628</v>
+        <v>0.02502949273132815</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02808499684366628</v>
+        <v>0.02502949273132815</v>
       </c>
       <c r="T3" t="n">
         <v>8.855087297184646</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[4.911751158793468, 12.798423435575824]</t>
+          <t>[4.905675282112283, 12.804499312257008]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.420379044334233e-05</v>
+        <v>4.521273869451115e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.420379044334233e-05</v>
+        <v>4.521273869451115e-05</v>
       </c>
       <c r="X3" t="n">
         <v>8.219419419419602</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9246846846847045</v>
+        <v>1.078798798798824</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5141541541545</v>
+        <v>15.36004004004038</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.118666505145077, 14.38740042632763]</t>
+          <t>[-0.7029668612603182, 13.971700782442872]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09166482752672489</v>
+        <v>0.07523819445147262</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09166482752672489</v>
+        <v>0.07523819445147262</v>
       </c>
       <c r="P4" t="n">
         <v>-2.415158316273234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.5284483333442, 0.6981317007977319]</t>
+          <t>[-5.534737808126161, 0.704421175579693]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1251866165857611</v>
+        <v>0.1259299484903986</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1251866165857611</v>
+        <v>0.1259299484903986</v>
       </c>
       <c r="T4" t="n">
         <v>8.73739047504113</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.786044385430724, 12.688736564651535]</t>
+          <t>[4.780030466556418, 12.69475048352584]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.529420745431501e-05</v>
+        <v>5.651568487397007e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.529420745431501e-05</v>
+        <v>5.651568487397007e-05</v>
       </c>
       <c r="X4" t="n">
         <v>9.863303303303523</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.851111111111175</v>
+        <v>-2.876796796796858</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.57771771771822</v>
+        <v>22.6034034034039</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.5553854873758386, 13.950924173576398]</t>
+          <t>[-0.6444962933651137, 14.040034979565673]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06944659593550062</v>
+        <v>0.07277325721071892</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06944659593550062</v>
+        <v>0.07277325721071892</v>
       </c>
       <c r="P5" t="n">
         <v>-2.80510575275485</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.503263943884468, -1.1069475616252316]</t>
+          <t>[-4.515842893448391, -1.0943686120613085]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001755548272379892</v>
+        <v>0.001883155472196529</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001755548272379892</v>
+        <v>0.001883155472196529</v>
       </c>
       <c r="T5" t="n">
         <v>8.686685813965367</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.731233089334403, 12.642138538596331]</t>
+          <t>[4.727235898496804, 12.64613572943393]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.099954326321821e-05</v>
+        <v>6.188344271418345e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.099954326321821e-05</v>
+        <v>6.188344271418345e-05</v>
       </c>
       <c r="X5" t="n">
         <v>11.45581581581607</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.520680680680779</v>
+        <v>4.469309309309407</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.39095095095136</v>
+        <v>18.44232232232273</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.23228056446629886, 13.565282676843212]</t>
+          <t>[-0.08340390745962978, 13.416406019836543]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05788009967911534</v>
+        <v>0.05277685252199937</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05788009967911534</v>
+        <v>0.05277685252199937</v>
       </c>
       <c r="P6" t="n">
         <v>3.08813211794312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.6667108172198102, 4.50955341866643]</t>
+          <t>[1.6541318676558872, 4.522132368230353]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.106026963987766e-05</v>
+        <v>8.036776320619055e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>7.106026963987766e-05</v>
+        <v>8.036776320619055e-05</v>
       </c>
       <c r="T6" t="n">
         <v>8.709714532851745</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.751498770355218, 12.667930295348272]</t>
+          <t>[4.752789775713996, 12.666639289989494]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.93260762913328e-05</v>
+        <v>5.905012362150686e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>5.93260762913328e-05</v>
+        <v>5.905012362150686e-05</v>
       </c>
       <c r="X6" t="n">
         <v>13.04832832832862</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.243363363363525</v>
+        <v>7.191991991992152</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.85329329329371</v>
+        <v>18.90466466466508</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.1255368527570706, 14.289997844899597]</t>
+          <t>[-0.9333710544319427, 14.097832046574469]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09230543459707641</v>
+        <v>0.08452511254471595</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09230543459707641</v>
+        <v>0.08452511254471595</v>
       </c>
       <c r="P7" t="n">
         <v>2.698184681461504</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8113422468730409, 4.585027116049968]</t>
+          <t>[0.861658045128733, 4.534711317794276]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.006066359121851272</v>
+        <v>0.0049061660912324</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006066359121851272</v>
+        <v>0.0049061660912324</v>
       </c>
       <c r="T7" t="n">
         <v>8.803387266562808</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.851338659845915, 12.755435873279701]</t>
+          <t>[4.852530523422878, 12.754244009702738]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.972439798578421e-05</v>
+        <v>4.950705622119855e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.972439798578421e-05</v>
+        <v>4.950705622119855e-05</v>
       </c>
       <c r="X7" t="n">
         <v>14.64084084084116</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.93513513513529</v>
+        <v>7.140620620620779</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.34654654654704</v>
+        <v>22.14106106106155</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.8736003466851034, 14.824516478009356]</t>
+          <t>[-1.8771838167578796, 14.828099948082132]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1252654171045577</v>
+        <v>0.1254233439034764</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1252654171045577</v>
+        <v>0.1254233439034764</v>
       </c>
       <c r="P8" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.3522105877898465, 5.497000959434392]</t>
+          <t>[-0.4151053356094625, 5.559895707254008]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08324193924942125</v>
+        <v>0.08972035363960584</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08324193924942125</v>
+        <v>0.08972035363960584</v>
       </c>
       <c r="T8" t="n">
         <v>9.886329130230516</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.577872325160936, 14.194785935300096]</t>
+          <t>[5.579618800174989, 14.193039460286043]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.204960463443207e-05</v>
+        <v>3.185409899097991e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.204960463443207e-05</v>
+        <v>3.185409899097991e-05</v>
       </c>
       <c r="X8" t="n">
         <v>15.15455455455489</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.210710710710785</v>
+        <v>2.95385385385392</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.098398398399</v>
+        <v>27.35525525525587</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.7254561309139564, 14.825614917055061]</t>
+          <t>[-0.4265517856950751, 14.52671057183618]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07446096488810494</v>
+        <v>0.06396050027265465</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07446096488810494</v>
+        <v>0.06396050027265465</v>
       </c>
       <c r="P9" t="n">
         <v>1.893131909370426</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 3.3648690083494275]</t>
+          <t>[0.2956053147521924, 3.4906585039886586]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01286133364548681</v>
+        <v>0.02126041711920523</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01286133364548681</v>
+        <v>0.02126041711920523</v>
       </c>
       <c r="T9" t="n">
         <v>9.322062250303789</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.225554094695859, 13.41857040591172]</t>
+          <t>[5.227390156458087, 13.416734344149491]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.631420894101289e-05</v>
+        <v>3.607193912991136e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.631420894101289e-05</v>
+        <v>3.607193912991136e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.68492492492513</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.09141141141155</v>
+        <v>10.61333333333346</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.27843843843871</v>
+        <v>22.7565165165168</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.5845527772553911, 14.477892204565935]</t>
+          <t>[-0.7390160895916154, 14.632355516902159]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.06975142545751667</v>
+        <v>0.07534662503256651</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06975142545751667</v>
+        <v>0.07534662503256651</v>
       </c>
       <c r="P10" t="n">
         <v>2.182447749340657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.0503157982556921, 4.415211296937006]</t>
+          <t>[-0.037736848691769076, 4.402632347373083]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.05516347885100026</v>
+        <v>0.05385369679806029</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05516347885100026</v>
+        <v>0.05385369679806029</v>
       </c>
       <c r="T10" t="n">
         <v>9.268607879013327</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.194951965594104, 13.34226379243255]</t>
+          <t>[5.191471049210939, 13.345744708815715]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.639918568931755e-05</v>
+        <v>3.686588562024085e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.639918568931755e-05</v>
+        <v>3.686588562024085e-05</v>
       </c>
       <c r="X10" t="n">
         <v>15.58534534534554</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.099459459459549</v>
+        <v>7.147267267267356</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.07123123123153</v>
+        <v>24.02342342342372</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.20668122645954767, 14.063527149803283]</t>
+          <t>[-0.3012100911341058, 14.158056014477841]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05671894895990759</v>
+        <v>0.05990051510628192</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05671894895990759</v>
+        <v>0.05990051510628192</v>
       </c>
       <c r="P11" t="n">
         <v>2.157289850212811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 3.6038690500639667]</t>
+          <t>[0.5094474573388847, 3.805132243086737]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.004346141510672252</v>
+        <v>0.01144698116666176</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004346141510672252</v>
+        <v>0.01144698116666176</v>
       </c>
       <c r="T11" t="n">
         <v>8.267696977646011</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.563539513782057, 11.971854441509965]</t>
+          <t>[4.560182021463703, 11.97521193382832]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.830096132901751e-05</v>
+        <v>4.894186601833717e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.830096132901751e-05</v>
+        <v>4.894186601833717e-05</v>
       </c>
       <c r="X11" t="n">
         <v>15.68096096096115</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.18306306306319</v>
+        <v>9.418138138138254</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.17885885885912</v>
+        <v>21.94378378378406</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.7640581394774575, 14.78930163236312]</t>
+          <t>[-1.0459172207885148, 15.071160713674178]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07600216917268532</v>
+        <v>0.08646589872230703</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07600216917268532</v>
+        <v>0.08646589872230703</v>
       </c>
       <c r="P12" t="n">
         <v>2.132131951084965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.15723686954903826, 4.107027032620891]</t>
+          <t>[0.1320789704211922, 4.132184931748737]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.03496766915526051</v>
+        <v>0.0372088669127375</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03496766915526051</v>
+        <v>0.0372088669127375</v>
       </c>
       <c r="T12" t="n">
         <v>9.288137783675339</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.18856995051746, 13.387705616833218]</t>
+          <t>[5.189411366179457, 13.386864201171221]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.876781926237527e-05</v>
+        <v>3.864986751311861e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.876781926237527e-05</v>
+        <v>3.864986751311861e-05</v>
       </c>
       <c r="X12" t="n">
         <v>15.77657657657677</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.27075075075085</v>
+        <v>8.175135135135235</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.28240240240269</v>
+        <v>23.37801801801831</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.8269193619803907, 14.90629179335926]</t>
+          <t>[-0.898004315338369, 14.977376746717239]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.07818491448695331</v>
+        <v>0.0807984027813391</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07818491448695331</v>
+        <v>0.0807984027813391</v>
       </c>
       <c r="P13" t="n">
         <v>2.421447791055196</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5471843060306547, 5.390079888141046]</t>
+          <t>[-0.6603948521059628, 5.503290434216354]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1073824444003793</v>
+        <v>0.1205370490425064</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1073824444003793</v>
+        <v>0.1205370490425064</v>
       </c>
       <c r="T13" t="n">
         <v>9.358496888474257</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.26741313272703, 13.449580644221484]</t>
+          <t>[5.272149516091016, 13.444844260857497]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.358027854183376e-05</v>
+        <v>3.300033334174834e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.358027854183376e-05</v>
+        <v>3.300033334174834e-05</v>
       </c>
       <c r="X13" t="n">
         <v>14.67699699699718</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.394354354354398</v>
+        <v>2.964084084084121</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.95963963963996</v>
+        <v>26.38990990991024</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.12842727394414233, 14.000081596088739]</t>
+          <t>[-0.31647879996883255, 14.18813312211343]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05413113984826223</v>
+        <v>0.06040895555449466</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05413113984826223</v>
+        <v>0.06040895555449466</v>
       </c>
       <c r="P14" t="n">
         <v>2.396289891927349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.5283158816847697, 5.320895665539468]</t>
+          <t>[1.0755001877154236, 3.717079596139275]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1058523572811698</v>
+        <v>0.000671436425438765</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1058523572811698</v>
+        <v>0.000671436425438765</v>
       </c>
       <c r="T14" t="n">
         <v>8.295025793174457</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.5637243388359625, 12.02632724751295]</t>
+          <t>[4.565099798623264, 12.024951787725648]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.119026329380993e-05</v>
+        <v>5.091759478292879e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.119026329380993e-05</v>
+        <v>5.091759478292879e-05</v>
       </c>
       <c r="X14" t="n">
         <v>14.7726126126128</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.657297297297347</v>
+        <v>9.752792792792913</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.88792792792825</v>
+        <v>19.79243243243268</v>
       </c>
     </row>
   </sheetData>
